--- a/evaluation/results/autoencoder/split_2/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/autoencoder/split_2/test_95_5/evaluation_metrics.xlsx
@@ -500,34 +500,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.2918149466192171</v>
+        <v>0.2437722419928826</v>
       </c>
       <c r="C2">
-        <v>0.06572769953051644</v>
+        <v>0.06181015452538632</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.1233480176211454</v>
+        <v>0.1164241164241164</v>
       </c>
       <c r="F2">
-        <v>0.2602230483271376</v>
+        <v>0.247787610619469</v>
       </c>
       <c r="G2">
-        <v>0.6465364120781527</v>
+        <v>0.6313963573287077</v>
       </c>
       <c r="H2">
-        <v>0.8000267522739433</v>
+        <v>0.7984216158373462</v>
       </c>
       <c r="I2">
         <v>28</v>
       </c>
       <c r="J2">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="K2">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2546816479400749</v>
+        <v>0.2041198501872659</v>
       </c>
       <c r="D2">
-        <v>0.4059701492537313</v>
+        <v>0.3390357698289269</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.06572769953051644</v>
+        <v>0.06181015452538632</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1233480176211454</v>
+        <v>0.1164241164241164</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.2918149466192171</v>
+        <v>0.2437722419928826</v>
       </c>
       <c r="C4">
-        <v>0.2918149466192171</v>
+        <v>0.2437722419928826</v>
       </c>
       <c r="D4">
-        <v>0.2918149466192171</v>
+        <v>0.2437722419928826</v>
       </c>
       <c r="E4">
-        <v>0.2918149466192171</v>
+        <v>0.2437722419928826</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5328638497652582</v>
+        <v>0.5309050772626932</v>
       </c>
       <c r="C5">
-        <v>0.6273408239700374</v>
+        <v>0.6020599250936329</v>
       </c>
       <c r="D5">
-        <v>0.2646590834374383</v>
+        <v>0.2277299431265217</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.953452625599385</v>
+        <v>0.9532574454211936</v>
       </c>
       <c r="C6">
-        <v>0.2918149466192171</v>
+        <v>0.2437722419928826</v>
       </c>
       <c r="D6">
-        <v>0.3918893313076238</v>
+        <v>0.3279447977731712</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C2">
-        <v>398</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:3">
